--- a/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
+++ b/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/icpuefebe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/icpuefebe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121325DB-79C3-CD4F-B1A7-F3CF71DBE9D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8F53A-86E0-6745-89F7-51B73C6CB60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="17" r:id="rId1"/>
@@ -3229,38 +3229,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3293,24 +3292,25 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="8">
       <alignment wrapText="1"/>
     </xf>
@@ -3324,7 +3324,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3726,7 +3726,7 @@
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="170">
+      <c r="C1" s="203">
         <v>44307</v>
       </c>
     </row>
@@ -14001,7 +14001,7 @@
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="181" t="s">
         <v>180</v>
       </c>
       <c r="B2" s="10">
@@ -14010,31 +14010,31 @@
       <c r="C2" s="10">
         <v>2015</v>
       </c>
-      <c r="D2" s="173">
+      <c r="D2" s="172">
         <v>2017</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="173">
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172">
         <v>2020</v>
       </c>
-      <c r="I2" s="175"/>
-      <c r="J2" s="173">
+      <c r="I2" s="171"/>
+      <c r="J2" s="172">
         <v>2030</v>
       </c>
-      <c r="K2" s="175"/>
-      <c r="L2" s="173">
+      <c r="K2" s="171"/>
+      <c r="L2" s="172">
         <v>2040</v>
       </c>
-      <c r="M2" s="175"/>
-      <c r="N2" s="173">
+      <c r="M2" s="171"/>
+      <c r="N2" s="172">
         <v>2050</v>
       </c>
-      <c r="O2" s="175"/>
+      <c r="O2" s="171"/>
     </row>
     <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="183"/>
+      <c r="A3" s="182"/>
       <c r="B3" s="11" t="s">
         <v>181</v>
       </c>
@@ -14220,7 +14220,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="185" t="s">
         <v>190</v>
       </c>
       <c r="B7" s="16">
@@ -14267,7 +14267,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="187"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="16">
         <v>27</v>
       </c>
@@ -14472,7 +14472,7 @@
       <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="175" t="s">
         <v>180</v>
       </c>
       <c r="B14" s="10">
@@ -14481,31 +14481,31 @@
       <c r="C14" s="10">
         <v>2015</v>
       </c>
-      <c r="D14" s="173">
+      <c r="D14" s="172">
         <v>2017</v>
       </c>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="173">
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172">
         <v>2020</v>
       </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174">
+      <c r="I14" s="170"/>
+      <c r="J14" s="170">
         <v>2030</v>
       </c>
-      <c r="K14" s="175"/>
-      <c r="L14" s="173">
+      <c r="K14" s="171"/>
+      <c r="L14" s="172">
         <v>2040</v>
       </c>
-      <c r="M14" s="175"/>
-      <c r="N14" s="173">
+      <c r="M14" s="171"/>
+      <c r="N14" s="172">
         <v>2050</v>
       </c>
-      <c r="O14" s="175"/>
+      <c r="O14" s="171"/>
     </row>
     <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="172"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="11" t="s">
         <v>181</v>
       </c>
@@ -14527,10 +14527,10 @@
       <c r="H15" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I15" s="196" t="s">
+      <c r="I15" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="197"/>
+      <c r="J15" s="174"/>
       <c r="K15" s="11" t="s">
         <v>185</v>
       </c>
@@ -14689,7 +14689,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="186" t="s">
+      <c r="A19" s="185" t="s">
         <v>190</v>
       </c>
       <c r="B19" s="16">
@@ -14736,7 +14736,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="16">
         <v>33</v>
       </c>
@@ -14781,7 +14781,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="187" t="s">
         <v>191</v>
       </c>
       <c r="B21" s="19">
@@ -14828,7 +14828,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="189"/>
+      <c r="A22" s="188"/>
       <c r="B22" s="19">
         <v>2350</v>
       </c>
@@ -14873,7 +14873,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="185" t="s">
         <v>192</v>
       </c>
       <c r="B23" s="22">
@@ -14920,7 +14920,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="187"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="22">
         <v>3400</v>
       </c>
@@ -15446,7 +15446,7 @@
       <c r="O39" s="26"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="171" t="s">
+      <c r="A40" s="175" t="s">
         <v>180</v>
       </c>
       <c r="B40" s="30">
@@ -15455,31 +15455,31 @@
       <c r="C40" s="10">
         <v>2015</v>
       </c>
-      <c r="D40" s="173">
+      <c r="D40" s="172">
         <v>2017</v>
       </c>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="173">
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="172">
         <v>2020</v>
       </c>
-      <c r="I40" s="175"/>
-      <c r="J40" s="190" t="s">
+      <c r="I40" s="171"/>
+      <c r="J40" s="189" t="s">
         <v>197</v>
       </c>
-      <c r="K40" s="191"/>
-      <c r="L40" s="173">
+      <c r="K40" s="190"/>
+      <c r="L40" s="172">
         <v>2040</v>
       </c>
-      <c r="M40" s="175"/>
-      <c r="N40" s="173">
+      <c r="M40" s="171"/>
+      <c r="N40" s="172">
         <v>2050</v>
       </c>
-      <c r="O40" s="175"/>
+      <c r="O40" s="171"/>
     </row>
     <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="172"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="11" t="s">
         <v>181</v>
       </c>
@@ -15665,7 +15665,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="177" t="s">
         <v>202</v>
       </c>
       <c r="B45" s="37">
@@ -15712,7 +15712,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="193"/>
+      <c r="A46" s="178"/>
       <c r="B46" s="18">
         <v>22</v>
       </c>
@@ -15851,7 +15851,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="194" t="s">
+      <c r="A49" s="179" t="s">
         <v>193</v>
       </c>
       <c r="B49" s="15">
@@ -15898,7 +15898,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="195"/>
+      <c r="A50" s="180"/>
       <c r="B50" s="15">
         <v>125</v>
       </c>
@@ -15969,28 +15969,28 @@
       <c r="C53" s="10">
         <v>2015</v>
       </c>
-      <c r="D53" s="173">
+      <c r="D53" s="172">
         <v>2017</v>
       </c>
-      <c r="E53" s="174"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="173">
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="172">
         <v>2020</v>
       </c>
-      <c r="I53" s="175"/>
-      <c r="J53" s="184">
+      <c r="I53" s="171"/>
+      <c r="J53" s="183">
         <v>2030</v>
       </c>
-      <c r="K53" s="185"/>
-      <c r="L53" s="173">
+      <c r="K53" s="184"/>
+      <c r="L53" s="172">
         <v>2040</v>
       </c>
-      <c r="M53" s="175"/>
-      <c r="N53" s="173">
+      <c r="M53" s="171"/>
+      <c r="N53" s="172">
         <v>2050</v>
       </c>
-      <c r="O53" s="175"/>
+      <c r="O53" s="171"/>
     </row>
     <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="47"/>
@@ -17764,17 +17764,17 @@
       <c r="I104" s="26"/>
     </row>
     <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="171" t="s">
+      <c r="A105" s="175" t="s">
         <v>180</v>
       </c>
       <c r="B105" s="10">
         <v>2012</v>
       </c>
-      <c r="C105" s="173">
+      <c r="C105" s="172">
         <v>2017</v>
       </c>
-      <c r="D105" s="174"/>
-      <c r="E105" s="175"/>
+      <c r="D105" s="170"/>
+      <c r="E105" s="171"/>
       <c r="F105" s="10">
         <v>2020</v>
       </c>
@@ -17789,7 +17789,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="172"/>
+      <c r="A106" s="176"/>
       <c r="B106" s="11" t="s">
         <v>181</v>
       </c>
@@ -18032,37 +18032,37 @@
       <c r="N115" s="26"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="171" t="s">
+      <c r="A116" s="175" t="s">
         <v>180</v>
       </c>
       <c r="B116" s="10">
         <v>2012</v>
       </c>
-      <c r="C116" s="173">
+      <c r="C116" s="172">
         <v>2017</v>
       </c>
-      <c r="D116" s="174"/>
-      <c r="E116" s="174"/>
-      <c r="F116" s="175"/>
-      <c r="G116" s="180" t="s">
+      <c r="D116" s="170"/>
+      <c r="E116" s="170"/>
+      <c r="F116" s="171"/>
+      <c r="G116" s="191" t="s">
         <v>245</v>
       </c>
-      <c r="H116" s="181"/>
-      <c r="I116" s="180" t="s">
+      <c r="H116" s="192"/>
+      <c r="I116" s="191" t="s">
         <v>246</v>
       </c>
-      <c r="J116" s="181"/>
-      <c r="K116" s="173">
+      <c r="J116" s="192"/>
+      <c r="K116" s="172">
         <v>2040</v>
       </c>
-      <c r="L116" s="175"/>
-      <c r="M116" s="173">
+      <c r="L116" s="171"/>
+      <c r="M116" s="172">
         <v>2050</v>
       </c>
-      <c r="N116" s="175"/>
+      <c r="N116" s="171"/>
     </row>
     <row r="117" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A117" s="172"/>
+      <c r="A117" s="176"/>
       <c r="B117" s="104" t="s">
         <v>181</v>
       </c>
@@ -18481,23 +18481,23 @@
         <v>2012</v>
       </c>
       <c r="C128" s="84"/>
-      <c r="D128" s="176">
+      <c r="D128" s="193">
         <v>2017</v>
       </c>
-      <c r="E128" s="176"/>
-      <c r="F128" s="176"/>
-      <c r="G128" s="177">
+      <c r="E128" s="193"/>
+      <c r="F128" s="193"/>
+      <c r="G128" s="194">
         <v>2020</v>
       </c>
-      <c r="H128" s="178"/>
-      <c r="I128" s="177">
+      <c r="H128" s="195"/>
+      <c r="I128" s="194">
         <v>2030</v>
       </c>
-      <c r="J128" s="178"/>
-      <c r="K128" s="179">
+      <c r="J128" s="195"/>
+      <c r="K128" s="196">
         <v>2040</v>
       </c>
-      <c r="L128" s="176"/>
+      <c r="L128" s="193"/>
       <c r="M128" s="45">
         <v>2050</v>
       </c>
@@ -18955,36 +18955,36 @@
       <c r="M140" s="26"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="171" t="s">
+      <c r="A141" s="175" t="s">
         <v>180</v>
       </c>
       <c r="B141" s="10">
         <v>2012</v>
       </c>
-      <c r="C141" s="173">
+      <c r="C141" s="172">
         <v>2017</v>
       </c>
-      <c r="D141" s="174"/>
-      <c r="E141" s="175"/>
-      <c r="F141" s="173">
+      <c r="D141" s="170"/>
+      <c r="E141" s="171"/>
+      <c r="F141" s="172">
         <v>2020</v>
       </c>
-      <c r="G141" s="175"/>
-      <c r="H141" s="173">
+      <c r="G141" s="171"/>
+      <c r="H141" s="172">
         <v>2030</v>
       </c>
-      <c r="I141" s="175"/>
-      <c r="J141" s="173">
+      <c r="I141" s="171"/>
+      <c r="J141" s="172">
         <v>2040</v>
       </c>
-      <c r="K141" s="175"/>
-      <c r="L141" s="173">
+      <c r="K141" s="171"/>
+      <c r="L141" s="172">
         <v>2050</v>
       </c>
-      <c r="M141" s="175"/>
+      <c r="M141" s="171"/>
     </row>
     <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A142" s="172"/>
+      <c r="A142" s="176"/>
       <c r="B142" s="104" t="s">
         <v>181</v>
       </c>
@@ -19311,20 +19311,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="G116:H116"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="N53:O53"/>
     <mergeCell ref="L53:M53"/>
@@ -19341,24 +19345,20 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30629,747 +30629,747 @@
     </row>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="203"/>
-      <c r="C308" s="203"/>
-      <c r="D308" s="203"/>
-      <c r="E308" s="203"/>
-      <c r="F308" s="203"/>
-      <c r="G308" s="203"/>
-      <c r="H308" s="203"/>
-      <c r="I308" s="203"/>
-      <c r="J308" s="203"/>
-      <c r="K308" s="203"/>
-      <c r="L308" s="203"/>
-      <c r="M308" s="203"/>
-      <c r="N308" s="203"/>
-      <c r="O308" s="203"/>
-      <c r="P308" s="203"/>
-      <c r="Q308" s="203"/>
-      <c r="R308" s="203"/>
-      <c r="S308" s="203"/>
-      <c r="T308" s="203"/>
-      <c r="U308" s="203"/>
-      <c r="V308" s="203"/>
-      <c r="W308" s="203"/>
-      <c r="X308" s="203"/>
-      <c r="Y308" s="203"/>
-      <c r="Z308" s="203"/>
-      <c r="AA308" s="203"/>
-      <c r="AB308" s="203"/>
-      <c r="AC308" s="203"/>
-      <c r="AD308" s="203"/>
-      <c r="AE308" s="203"/>
-      <c r="AF308" s="203"/>
-      <c r="AG308" s="203"/>
-      <c r="AH308" s="203"/>
+      <c r="B308" s="197"/>
+      <c r="C308" s="197"/>
+      <c r="D308" s="197"/>
+      <c r="E308" s="197"/>
+      <c r="F308" s="197"/>
+      <c r="G308" s="197"/>
+      <c r="H308" s="197"/>
+      <c r="I308" s="197"/>
+      <c r="J308" s="197"/>
+      <c r="K308" s="197"/>
+      <c r="L308" s="197"/>
+      <c r="M308" s="197"/>
+      <c r="N308" s="197"/>
+      <c r="O308" s="197"/>
+      <c r="P308" s="197"/>
+      <c r="Q308" s="197"/>
+      <c r="R308" s="197"/>
+      <c r="S308" s="197"/>
+      <c r="T308" s="197"/>
+      <c r="U308" s="197"/>
+      <c r="V308" s="197"/>
+      <c r="W308" s="197"/>
+      <c r="X308" s="197"/>
+      <c r="Y308" s="197"/>
+      <c r="Z308" s="197"/>
+      <c r="AA308" s="197"/>
+      <c r="AB308" s="197"/>
+      <c r="AC308" s="197"/>
+      <c r="AD308" s="197"/>
+      <c r="AE308" s="197"/>
+      <c r="AF308" s="197"/>
+      <c r="AG308" s="197"/>
+      <c r="AH308" s="197"/>
     </row>
     <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="379" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="203"/>
-      <c r="C511" s="203"/>
-      <c r="D511" s="203"/>
-      <c r="E511" s="203"/>
-      <c r="F511" s="203"/>
-      <c r="G511" s="203"/>
-      <c r="H511" s="203"/>
-      <c r="I511" s="203"/>
-      <c r="J511" s="203"/>
-      <c r="K511" s="203"/>
-      <c r="L511" s="203"/>
-      <c r="M511" s="203"/>
-      <c r="N511" s="203"/>
-      <c r="O511" s="203"/>
-      <c r="P511" s="203"/>
-      <c r="Q511" s="203"/>
-      <c r="R511" s="203"/>
-      <c r="S511" s="203"/>
-      <c r="T511" s="203"/>
-      <c r="U511" s="203"/>
-      <c r="V511" s="203"/>
-      <c r="W511" s="203"/>
-      <c r="X511" s="203"/>
-      <c r="Y511" s="203"/>
-      <c r="Z511" s="203"/>
-      <c r="AA511" s="203"/>
-      <c r="AB511" s="203"/>
-      <c r="AC511" s="203"/>
-      <c r="AD511" s="203"/>
-      <c r="AE511" s="203"/>
-      <c r="AF511" s="203"/>
-      <c r="AG511" s="203"/>
-      <c r="AH511" s="203"/>
+      <c r="B511" s="197"/>
+      <c r="C511" s="197"/>
+      <c r="D511" s="197"/>
+      <c r="E511" s="197"/>
+      <c r="F511" s="197"/>
+      <c r="G511" s="197"/>
+      <c r="H511" s="197"/>
+      <c r="I511" s="197"/>
+      <c r="J511" s="197"/>
+      <c r="K511" s="197"/>
+      <c r="L511" s="197"/>
+      <c r="M511" s="197"/>
+      <c r="N511" s="197"/>
+      <c r="O511" s="197"/>
+      <c r="P511" s="197"/>
+      <c r="Q511" s="197"/>
+      <c r="R511" s="197"/>
+      <c r="S511" s="197"/>
+      <c r="T511" s="197"/>
+      <c r="U511" s="197"/>
+      <c r="V511" s="197"/>
+      <c r="W511" s="197"/>
+      <c r="X511" s="197"/>
+      <c r="Y511" s="197"/>
+      <c r="Z511" s="197"/>
+      <c r="AA511" s="197"/>
+      <c r="AB511" s="197"/>
+      <c r="AC511" s="197"/>
+      <c r="AD511" s="197"/>
+      <c r="AE511" s="197"/>
+      <c r="AF511" s="197"/>
+      <c r="AG511" s="197"/>
+      <c r="AH511" s="197"/>
     </row>
     <row r="578" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="579" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="203"/>
-      <c r="C712" s="203"/>
-      <c r="D712" s="203"/>
-      <c r="E712" s="203"/>
-      <c r="F712" s="203"/>
-      <c r="G712" s="203"/>
-      <c r="H712" s="203"/>
-      <c r="I712" s="203"/>
-      <c r="J712" s="203"/>
-      <c r="K712" s="203"/>
-      <c r="L712" s="203"/>
-      <c r="M712" s="203"/>
-      <c r="N712" s="203"/>
-      <c r="O712" s="203"/>
-      <c r="P712" s="203"/>
-      <c r="Q712" s="203"/>
-      <c r="R712" s="203"/>
-      <c r="S712" s="203"/>
-      <c r="T712" s="203"/>
-      <c r="U712" s="203"/>
-      <c r="V712" s="203"/>
-      <c r="W712" s="203"/>
-      <c r="X712" s="203"/>
-      <c r="Y712" s="203"/>
-      <c r="Z712" s="203"/>
-      <c r="AA712" s="203"/>
-      <c r="AB712" s="203"/>
-      <c r="AC712" s="203"/>
-      <c r="AD712" s="203"/>
-      <c r="AE712" s="203"/>
-      <c r="AF712" s="203"/>
-      <c r="AG712" s="203"/>
-      <c r="AH712" s="203"/>
+      <c r="B712" s="197"/>
+      <c r="C712" s="197"/>
+      <c r="D712" s="197"/>
+      <c r="E712" s="197"/>
+      <c r="F712" s="197"/>
+      <c r="G712" s="197"/>
+      <c r="H712" s="197"/>
+      <c r="I712" s="197"/>
+      <c r="J712" s="197"/>
+      <c r="K712" s="197"/>
+      <c r="L712" s="197"/>
+      <c r="M712" s="197"/>
+      <c r="N712" s="197"/>
+      <c r="O712" s="197"/>
+      <c r="P712" s="197"/>
+      <c r="Q712" s="197"/>
+      <c r="R712" s="197"/>
+      <c r="S712" s="197"/>
+      <c r="T712" s="197"/>
+      <c r="U712" s="197"/>
+      <c r="V712" s="197"/>
+      <c r="W712" s="197"/>
+      <c r="X712" s="197"/>
+      <c r="Y712" s="197"/>
+      <c r="Z712" s="197"/>
+      <c r="AA712" s="197"/>
+      <c r="AB712" s="197"/>
+      <c r="AC712" s="197"/>
+      <c r="AD712" s="197"/>
+      <c r="AE712" s="197"/>
+      <c r="AF712" s="197"/>
+      <c r="AG712" s="197"/>
+      <c r="AH712" s="197"/>
     </row>
     <row r="778" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="779" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="203"/>
-      <c r="C887" s="203"/>
-      <c r="D887" s="203"/>
-      <c r="E887" s="203"/>
-      <c r="F887" s="203"/>
-      <c r="G887" s="203"/>
-      <c r="H887" s="203"/>
-      <c r="I887" s="203"/>
-      <c r="J887" s="203"/>
-      <c r="K887" s="203"/>
-      <c r="L887" s="203"/>
-      <c r="M887" s="203"/>
-      <c r="N887" s="203"/>
-      <c r="O887" s="203"/>
-      <c r="P887" s="203"/>
-      <c r="Q887" s="203"/>
-      <c r="R887" s="203"/>
-      <c r="S887" s="203"/>
-      <c r="T887" s="203"/>
-      <c r="U887" s="203"/>
-      <c r="V887" s="203"/>
-      <c r="W887" s="203"/>
-      <c r="X887" s="203"/>
-      <c r="Y887" s="203"/>
-      <c r="Z887" s="203"/>
-      <c r="AA887" s="203"/>
-      <c r="AB887" s="203"/>
-      <c r="AC887" s="203"/>
-      <c r="AD887" s="203"/>
-      <c r="AE887" s="203"/>
-      <c r="AF887" s="203"/>
-      <c r="AG887" s="203"/>
-      <c r="AH887" s="203"/>
+      <c r="B887" s="197"/>
+      <c r="C887" s="197"/>
+      <c r="D887" s="197"/>
+      <c r="E887" s="197"/>
+      <c r="F887" s="197"/>
+      <c r="G887" s="197"/>
+      <c r="H887" s="197"/>
+      <c r="I887" s="197"/>
+      <c r="J887" s="197"/>
+      <c r="K887" s="197"/>
+      <c r="L887" s="197"/>
+      <c r="M887" s="197"/>
+      <c r="N887" s="197"/>
+      <c r="O887" s="197"/>
+      <c r="P887" s="197"/>
+      <c r="Q887" s="197"/>
+      <c r="R887" s="197"/>
+      <c r="S887" s="197"/>
+      <c r="T887" s="197"/>
+      <c r="U887" s="197"/>
+      <c r="V887" s="197"/>
+      <c r="W887" s="197"/>
+      <c r="X887" s="197"/>
+      <c r="Y887" s="197"/>
+      <c r="Z887" s="197"/>
+      <c r="AA887" s="197"/>
+      <c r="AB887" s="197"/>
+      <c r="AC887" s="197"/>
+      <c r="AD887" s="197"/>
+      <c r="AE887" s="197"/>
+      <c r="AF887" s="197"/>
+      <c r="AG887" s="197"/>
+      <c r="AH887" s="197"/>
     </row>
     <row r="953" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="954" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1100" s="203"/>
-      <c r="C1100" s="203"/>
-      <c r="D1100" s="203"/>
-      <c r="E1100" s="203"/>
-      <c r="F1100" s="203"/>
-      <c r="G1100" s="203"/>
-      <c r="H1100" s="203"/>
-      <c r="I1100" s="203"/>
-      <c r="J1100" s="203"/>
-      <c r="K1100" s="203"/>
-      <c r="L1100" s="203"/>
-      <c r="M1100" s="203"/>
-      <c r="N1100" s="203"/>
-      <c r="O1100" s="203"/>
-      <c r="P1100" s="203"/>
-      <c r="Q1100" s="203"/>
-      <c r="R1100" s="203"/>
-      <c r="S1100" s="203"/>
-      <c r="T1100" s="203"/>
-      <c r="U1100" s="203"/>
-      <c r="V1100" s="203"/>
-      <c r="W1100" s="203"/>
-      <c r="X1100" s="203"/>
-      <c r="Y1100" s="203"/>
-      <c r="Z1100" s="203"/>
-      <c r="AA1100" s="203"/>
-      <c r="AB1100" s="203"/>
-      <c r="AC1100" s="203"/>
-      <c r="AD1100" s="203"/>
-      <c r="AE1100" s="203"/>
-      <c r="AF1100" s="203"/>
-      <c r="AG1100" s="203"/>
-      <c r="AH1100" s="203"/>
+      <c r="B1100" s="197"/>
+      <c r="C1100" s="197"/>
+      <c r="D1100" s="197"/>
+      <c r="E1100" s="197"/>
+      <c r="F1100" s="197"/>
+      <c r="G1100" s="197"/>
+      <c r="H1100" s="197"/>
+      <c r="I1100" s="197"/>
+      <c r="J1100" s="197"/>
+      <c r="K1100" s="197"/>
+      <c r="L1100" s="197"/>
+      <c r="M1100" s="197"/>
+      <c r="N1100" s="197"/>
+      <c r="O1100" s="197"/>
+      <c r="P1100" s="197"/>
+      <c r="Q1100" s="197"/>
+      <c r="R1100" s="197"/>
+      <c r="S1100" s="197"/>
+      <c r="T1100" s="197"/>
+      <c r="U1100" s="197"/>
+      <c r="V1100" s="197"/>
+      <c r="W1100" s="197"/>
+      <c r="X1100" s="197"/>
+      <c r="Y1100" s="197"/>
+      <c r="Z1100" s="197"/>
+      <c r="AA1100" s="197"/>
+      <c r="AB1100" s="197"/>
+      <c r="AC1100" s="197"/>
+      <c r="AD1100" s="197"/>
+      <c r="AE1100" s="197"/>
+      <c r="AF1100" s="197"/>
+      <c r="AG1100" s="197"/>
+      <c r="AH1100" s="197"/>
     </row>
     <row r="1153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1227" s="203"/>
-      <c r="C1227" s="203"/>
-      <c r="D1227" s="203"/>
-      <c r="E1227" s="203"/>
-      <c r="F1227" s="203"/>
-      <c r="G1227" s="203"/>
-      <c r="H1227" s="203"/>
-      <c r="I1227" s="203"/>
-      <c r="J1227" s="203"/>
-      <c r="K1227" s="203"/>
-      <c r="L1227" s="203"/>
-      <c r="M1227" s="203"/>
-      <c r="N1227" s="203"/>
-      <c r="O1227" s="203"/>
-      <c r="P1227" s="203"/>
-      <c r="Q1227" s="203"/>
-      <c r="R1227" s="203"/>
-      <c r="S1227" s="203"/>
-      <c r="T1227" s="203"/>
-      <c r="U1227" s="203"/>
-      <c r="V1227" s="203"/>
-      <c r="W1227" s="203"/>
-      <c r="X1227" s="203"/>
-      <c r="Y1227" s="203"/>
-      <c r="Z1227" s="203"/>
-      <c r="AA1227" s="203"/>
-      <c r="AB1227" s="203"/>
-      <c r="AC1227" s="203"/>
-      <c r="AD1227" s="203"/>
-      <c r="AE1227" s="203"/>
-      <c r="AF1227" s="203"/>
-      <c r="AG1227" s="203"/>
-      <c r="AH1227" s="203"/>
+      <c r="B1227" s="197"/>
+      <c r="C1227" s="197"/>
+      <c r="D1227" s="197"/>
+      <c r="E1227" s="197"/>
+      <c r="F1227" s="197"/>
+      <c r="G1227" s="197"/>
+      <c r="H1227" s="197"/>
+      <c r="I1227" s="197"/>
+      <c r="J1227" s="197"/>
+      <c r="K1227" s="197"/>
+      <c r="L1227" s="197"/>
+      <c r="M1227" s="197"/>
+      <c r="N1227" s="197"/>
+      <c r="O1227" s="197"/>
+      <c r="P1227" s="197"/>
+      <c r="Q1227" s="197"/>
+      <c r="R1227" s="197"/>
+      <c r="S1227" s="197"/>
+      <c r="T1227" s="197"/>
+      <c r="U1227" s="197"/>
+      <c r="V1227" s="197"/>
+      <c r="W1227" s="197"/>
+      <c r="X1227" s="197"/>
+      <c r="Y1227" s="197"/>
+      <c r="Z1227" s="197"/>
+      <c r="AA1227" s="197"/>
+      <c r="AB1227" s="197"/>
+      <c r="AC1227" s="197"/>
+      <c r="AD1227" s="197"/>
+      <c r="AE1227" s="197"/>
+      <c r="AF1227" s="197"/>
+      <c r="AG1227" s="197"/>
+      <c r="AH1227" s="197"/>
     </row>
     <row r="1303" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1304" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1390" s="203"/>
-      <c r="C1390" s="203"/>
-      <c r="D1390" s="203"/>
-      <c r="E1390" s="203"/>
-      <c r="F1390" s="203"/>
-      <c r="G1390" s="203"/>
-      <c r="H1390" s="203"/>
-      <c r="I1390" s="203"/>
-      <c r="J1390" s="203"/>
-      <c r="K1390" s="203"/>
-      <c r="L1390" s="203"/>
-      <c r="M1390" s="203"/>
-      <c r="N1390" s="203"/>
-      <c r="O1390" s="203"/>
-      <c r="P1390" s="203"/>
-      <c r="Q1390" s="203"/>
-      <c r="R1390" s="203"/>
-      <c r="S1390" s="203"/>
-      <c r="T1390" s="203"/>
-      <c r="U1390" s="203"/>
-      <c r="V1390" s="203"/>
-      <c r="W1390" s="203"/>
-      <c r="X1390" s="203"/>
-      <c r="Y1390" s="203"/>
-      <c r="Z1390" s="203"/>
-      <c r="AA1390" s="203"/>
-      <c r="AB1390" s="203"/>
-      <c r="AC1390" s="203"/>
-      <c r="AD1390" s="203"/>
-      <c r="AE1390" s="203"/>
-      <c r="AF1390" s="203"/>
-      <c r="AG1390" s="203"/>
-      <c r="AH1390" s="203"/>
+      <c r="B1390" s="197"/>
+      <c r="C1390" s="197"/>
+      <c r="D1390" s="197"/>
+      <c r="E1390" s="197"/>
+      <c r="F1390" s="197"/>
+      <c r="G1390" s="197"/>
+      <c r="H1390" s="197"/>
+      <c r="I1390" s="197"/>
+      <c r="J1390" s="197"/>
+      <c r="K1390" s="197"/>
+      <c r="L1390" s="197"/>
+      <c r="M1390" s="197"/>
+      <c r="N1390" s="197"/>
+      <c r="O1390" s="197"/>
+      <c r="P1390" s="197"/>
+      <c r="Q1390" s="197"/>
+      <c r="R1390" s="197"/>
+      <c r="S1390" s="197"/>
+      <c r="T1390" s="197"/>
+      <c r="U1390" s="197"/>
+      <c r="V1390" s="197"/>
+      <c r="W1390" s="197"/>
+      <c r="X1390" s="197"/>
+      <c r="Y1390" s="197"/>
+      <c r="Z1390" s="197"/>
+      <c r="AA1390" s="197"/>
+      <c r="AB1390" s="197"/>
+      <c r="AC1390" s="197"/>
+      <c r="AD1390" s="197"/>
+      <c r="AE1390" s="197"/>
+      <c r="AF1390" s="197"/>
+      <c r="AG1390" s="197"/>
+      <c r="AH1390" s="197"/>
     </row>
     <row r="1428" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1429" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1502" s="203"/>
-      <c r="C1502" s="203"/>
-      <c r="D1502" s="203"/>
-      <c r="E1502" s="203"/>
-      <c r="F1502" s="203"/>
-      <c r="G1502" s="203"/>
-      <c r="H1502" s="203"/>
-      <c r="I1502" s="203"/>
-      <c r="J1502" s="203"/>
-      <c r="K1502" s="203"/>
-      <c r="L1502" s="203"/>
-      <c r="M1502" s="203"/>
-      <c r="N1502" s="203"/>
-      <c r="O1502" s="203"/>
-      <c r="P1502" s="203"/>
-      <c r="Q1502" s="203"/>
-      <c r="R1502" s="203"/>
-      <c r="S1502" s="203"/>
-      <c r="T1502" s="203"/>
-      <c r="U1502" s="203"/>
-      <c r="V1502" s="203"/>
-      <c r="W1502" s="203"/>
-      <c r="X1502" s="203"/>
-      <c r="Y1502" s="203"/>
-      <c r="Z1502" s="203"/>
-      <c r="AA1502" s="203"/>
-      <c r="AB1502" s="203"/>
-      <c r="AC1502" s="203"/>
-      <c r="AD1502" s="203"/>
-      <c r="AE1502" s="203"/>
-      <c r="AF1502" s="203"/>
-      <c r="AG1502" s="203"/>
-      <c r="AH1502" s="203"/>
+      <c r="B1502" s="197"/>
+      <c r="C1502" s="197"/>
+      <c r="D1502" s="197"/>
+      <c r="E1502" s="197"/>
+      <c r="F1502" s="197"/>
+      <c r="G1502" s="197"/>
+      <c r="H1502" s="197"/>
+      <c r="I1502" s="197"/>
+      <c r="J1502" s="197"/>
+      <c r="K1502" s="197"/>
+      <c r="L1502" s="197"/>
+      <c r="M1502" s="197"/>
+      <c r="N1502" s="197"/>
+      <c r="O1502" s="197"/>
+      <c r="P1502" s="197"/>
+      <c r="Q1502" s="197"/>
+      <c r="R1502" s="197"/>
+      <c r="S1502" s="197"/>
+      <c r="T1502" s="197"/>
+      <c r="U1502" s="197"/>
+      <c r="V1502" s="197"/>
+      <c r="W1502" s="197"/>
+      <c r="X1502" s="197"/>
+      <c r="Y1502" s="197"/>
+      <c r="Z1502" s="197"/>
+      <c r="AA1502" s="197"/>
+      <c r="AB1502" s="197"/>
+      <c r="AC1502" s="197"/>
+      <c r="AD1502" s="197"/>
+      <c r="AE1502" s="197"/>
+      <c r="AF1502" s="197"/>
+      <c r="AG1502" s="197"/>
+      <c r="AH1502" s="197"/>
     </row>
     <row r="1578" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1579" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1604" s="203"/>
-      <c r="C1604" s="203"/>
-      <c r="D1604" s="203"/>
-      <c r="E1604" s="203"/>
-      <c r="F1604" s="203"/>
-      <c r="G1604" s="203"/>
-      <c r="H1604" s="203"/>
-      <c r="I1604" s="203"/>
-      <c r="J1604" s="203"/>
-      <c r="K1604" s="203"/>
-      <c r="L1604" s="203"/>
-      <c r="M1604" s="203"/>
-      <c r="N1604" s="203"/>
-      <c r="O1604" s="203"/>
-      <c r="P1604" s="203"/>
-      <c r="Q1604" s="203"/>
-      <c r="R1604" s="203"/>
-      <c r="S1604" s="203"/>
-      <c r="T1604" s="203"/>
-      <c r="U1604" s="203"/>
-      <c r="V1604" s="203"/>
-      <c r="W1604" s="203"/>
-      <c r="X1604" s="203"/>
-      <c r="Y1604" s="203"/>
-      <c r="Z1604" s="203"/>
-      <c r="AA1604" s="203"/>
-      <c r="AB1604" s="203"/>
-      <c r="AC1604" s="203"/>
-      <c r="AD1604" s="203"/>
-      <c r="AE1604" s="203"/>
-      <c r="AF1604" s="203"/>
-      <c r="AG1604" s="203"/>
-      <c r="AH1604" s="203"/>
+      <c r="B1604" s="197"/>
+      <c r="C1604" s="197"/>
+      <c r="D1604" s="197"/>
+      <c r="E1604" s="197"/>
+      <c r="F1604" s="197"/>
+      <c r="G1604" s="197"/>
+      <c r="H1604" s="197"/>
+      <c r="I1604" s="197"/>
+      <c r="J1604" s="197"/>
+      <c r="K1604" s="197"/>
+      <c r="L1604" s="197"/>
+      <c r="M1604" s="197"/>
+      <c r="N1604" s="197"/>
+      <c r="O1604" s="197"/>
+      <c r="P1604" s="197"/>
+      <c r="Q1604" s="197"/>
+      <c r="R1604" s="197"/>
+      <c r="S1604" s="197"/>
+      <c r="T1604" s="197"/>
+      <c r="U1604" s="197"/>
+      <c r="V1604" s="197"/>
+      <c r="W1604" s="197"/>
+      <c r="X1604" s="197"/>
+      <c r="Y1604" s="197"/>
+      <c r="Z1604" s="197"/>
+      <c r="AA1604" s="197"/>
+      <c r="AB1604" s="197"/>
+      <c r="AC1604" s="197"/>
+      <c r="AD1604" s="197"/>
+      <c r="AE1604" s="197"/>
+      <c r="AF1604" s="197"/>
+      <c r="AG1604" s="197"/>
+      <c r="AH1604" s="197"/>
     </row>
     <row r="1628" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1629" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1698" s="203"/>
-      <c r="C1698" s="203"/>
-      <c r="D1698" s="203"/>
-      <c r="E1698" s="203"/>
-      <c r="F1698" s="203"/>
-      <c r="G1698" s="203"/>
-      <c r="H1698" s="203"/>
-      <c r="I1698" s="203"/>
-      <c r="J1698" s="203"/>
-      <c r="K1698" s="203"/>
-      <c r="L1698" s="203"/>
-      <c r="M1698" s="203"/>
-      <c r="N1698" s="203"/>
-      <c r="O1698" s="203"/>
-      <c r="P1698" s="203"/>
-      <c r="Q1698" s="203"/>
-      <c r="R1698" s="203"/>
-      <c r="S1698" s="203"/>
-      <c r="T1698" s="203"/>
-      <c r="U1698" s="203"/>
-      <c r="V1698" s="203"/>
-      <c r="W1698" s="203"/>
-      <c r="X1698" s="203"/>
-      <c r="Y1698" s="203"/>
-      <c r="Z1698" s="203"/>
-      <c r="AA1698" s="203"/>
-      <c r="AB1698" s="203"/>
-      <c r="AC1698" s="203"/>
-      <c r="AD1698" s="203"/>
-      <c r="AE1698" s="203"/>
-      <c r="AF1698" s="203"/>
-      <c r="AG1698" s="203"/>
-      <c r="AH1698" s="203"/>
+      <c r="B1698" s="197"/>
+      <c r="C1698" s="197"/>
+      <c r="D1698" s="197"/>
+      <c r="E1698" s="197"/>
+      <c r="F1698" s="197"/>
+      <c r="G1698" s="197"/>
+      <c r="H1698" s="197"/>
+      <c r="I1698" s="197"/>
+      <c r="J1698" s="197"/>
+      <c r="K1698" s="197"/>
+      <c r="L1698" s="197"/>
+      <c r="M1698" s="197"/>
+      <c r="N1698" s="197"/>
+      <c r="O1698" s="197"/>
+      <c r="P1698" s="197"/>
+      <c r="Q1698" s="197"/>
+      <c r="R1698" s="197"/>
+      <c r="S1698" s="197"/>
+      <c r="T1698" s="197"/>
+      <c r="U1698" s="197"/>
+      <c r="V1698" s="197"/>
+      <c r="W1698" s="197"/>
+      <c r="X1698" s="197"/>
+      <c r="Y1698" s="197"/>
+      <c r="Z1698" s="197"/>
+      <c r="AA1698" s="197"/>
+      <c r="AB1698" s="197"/>
+      <c r="AC1698" s="197"/>
+      <c r="AD1698" s="197"/>
+      <c r="AE1698" s="197"/>
+      <c r="AF1698" s="197"/>
+      <c r="AG1698" s="197"/>
+      <c r="AH1698" s="197"/>
     </row>
     <row r="1853" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1854" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1945" s="203"/>
-      <c r="C1945" s="203"/>
-      <c r="D1945" s="203"/>
-      <c r="E1945" s="203"/>
-      <c r="F1945" s="203"/>
-      <c r="G1945" s="203"/>
-      <c r="H1945" s="203"/>
-      <c r="I1945" s="203"/>
-      <c r="J1945" s="203"/>
-      <c r="K1945" s="203"/>
-      <c r="L1945" s="203"/>
-      <c r="M1945" s="203"/>
-      <c r="N1945" s="203"/>
-      <c r="O1945" s="203"/>
-      <c r="P1945" s="203"/>
-      <c r="Q1945" s="203"/>
-      <c r="R1945" s="203"/>
-      <c r="S1945" s="203"/>
-      <c r="T1945" s="203"/>
-      <c r="U1945" s="203"/>
-      <c r="V1945" s="203"/>
-      <c r="W1945" s="203"/>
-      <c r="X1945" s="203"/>
-      <c r="Y1945" s="203"/>
-      <c r="Z1945" s="203"/>
-      <c r="AA1945" s="203"/>
-      <c r="AB1945" s="203"/>
-      <c r="AC1945" s="203"/>
-      <c r="AD1945" s="203"/>
-      <c r="AE1945" s="203"/>
-      <c r="AF1945" s="203"/>
-      <c r="AG1945" s="203"/>
-      <c r="AH1945" s="203"/>
+      <c r="B1945" s="197"/>
+      <c r="C1945" s="197"/>
+      <c r="D1945" s="197"/>
+      <c r="E1945" s="197"/>
+      <c r="F1945" s="197"/>
+      <c r="G1945" s="197"/>
+      <c r="H1945" s="197"/>
+      <c r="I1945" s="197"/>
+      <c r="J1945" s="197"/>
+      <c r="K1945" s="197"/>
+      <c r="L1945" s="197"/>
+      <c r="M1945" s="197"/>
+      <c r="N1945" s="197"/>
+      <c r="O1945" s="197"/>
+      <c r="P1945" s="197"/>
+      <c r="Q1945" s="197"/>
+      <c r="R1945" s="197"/>
+      <c r="S1945" s="197"/>
+      <c r="T1945" s="197"/>
+      <c r="U1945" s="197"/>
+      <c r="V1945" s="197"/>
+      <c r="W1945" s="197"/>
+      <c r="X1945" s="197"/>
+      <c r="Y1945" s="197"/>
+      <c r="Z1945" s="197"/>
+      <c r="AA1945" s="197"/>
+      <c r="AB1945" s="197"/>
+      <c r="AC1945" s="197"/>
+      <c r="AD1945" s="197"/>
+      <c r="AE1945" s="197"/>
+      <c r="AF1945" s="197"/>
+      <c r="AG1945" s="197"/>
+      <c r="AH1945" s="197"/>
     </row>
     <row r="1978" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1979" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2031" s="203"/>
-      <c r="C2031" s="203"/>
-      <c r="D2031" s="203"/>
-      <c r="E2031" s="203"/>
-      <c r="F2031" s="203"/>
-      <c r="G2031" s="203"/>
-      <c r="H2031" s="203"/>
-      <c r="I2031" s="203"/>
-      <c r="J2031" s="203"/>
-      <c r="K2031" s="203"/>
-      <c r="L2031" s="203"/>
-      <c r="M2031" s="203"/>
-      <c r="N2031" s="203"/>
-      <c r="O2031" s="203"/>
-      <c r="P2031" s="203"/>
-      <c r="Q2031" s="203"/>
-      <c r="R2031" s="203"/>
-      <c r="S2031" s="203"/>
-      <c r="T2031" s="203"/>
-      <c r="U2031" s="203"/>
-      <c r="V2031" s="203"/>
-      <c r="W2031" s="203"/>
-      <c r="X2031" s="203"/>
-      <c r="Y2031" s="203"/>
-      <c r="Z2031" s="203"/>
-      <c r="AA2031" s="203"/>
-      <c r="AB2031" s="203"/>
-      <c r="AC2031" s="203"/>
-      <c r="AD2031" s="203"/>
-      <c r="AE2031" s="203"/>
-      <c r="AF2031" s="203"/>
-      <c r="AG2031" s="203"/>
-      <c r="AH2031" s="203"/>
+      <c r="B2031" s="197"/>
+      <c r="C2031" s="197"/>
+      <c r="D2031" s="197"/>
+      <c r="E2031" s="197"/>
+      <c r="F2031" s="197"/>
+      <c r="G2031" s="197"/>
+      <c r="H2031" s="197"/>
+      <c r="I2031" s="197"/>
+      <c r="J2031" s="197"/>
+      <c r="K2031" s="197"/>
+      <c r="L2031" s="197"/>
+      <c r="M2031" s="197"/>
+      <c r="N2031" s="197"/>
+      <c r="O2031" s="197"/>
+      <c r="P2031" s="197"/>
+      <c r="Q2031" s="197"/>
+      <c r="R2031" s="197"/>
+      <c r="S2031" s="197"/>
+      <c r="T2031" s="197"/>
+      <c r="U2031" s="197"/>
+      <c r="V2031" s="197"/>
+      <c r="W2031" s="197"/>
+      <c r="X2031" s="197"/>
+      <c r="Y2031" s="197"/>
+      <c r="Z2031" s="197"/>
+      <c r="AA2031" s="197"/>
+      <c r="AB2031" s="197"/>
+      <c r="AC2031" s="197"/>
+      <c r="AD2031" s="197"/>
+      <c r="AE2031" s="197"/>
+      <c r="AF2031" s="197"/>
+      <c r="AG2031" s="197"/>
+      <c r="AH2031" s="197"/>
     </row>
     <row r="2103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2153" s="203"/>
-      <c r="C2153" s="203"/>
-      <c r="D2153" s="203"/>
-      <c r="E2153" s="203"/>
-      <c r="F2153" s="203"/>
-      <c r="G2153" s="203"/>
-      <c r="H2153" s="203"/>
-      <c r="I2153" s="203"/>
-      <c r="J2153" s="203"/>
-      <c r="K2153" s="203"/>
-      <c r="L2153" s="203"/>
-      <c r="M2153" s="203"/>
-      <c r="N2153" s="203"/>
-      <c r="O2153" s="203"/>
-      <c r="P2153" s="203"/>
-      <c r="Q2153" s="203"/>
-      <c r="R2153" s="203"/>
-      <c r="S2153" s="203"/>
-      <c r="T2153" s="203"/>
-      <c r="U2153" s="203"/>
-      <c r="V2153" s="203"/>
-      <c r="W2153" s="203"/>
-      <c r="X2153" s="203"/>
-      <c r="Y2153" s="203"/>
-      <c r="Z2153" s="203"/>
-      <c r="AA2153" s="203"/>
-      <c r="AB2153" s="203"/>
-      <c r="AC2153" s="203"/>
-      <c r="AD2153" s="203"/>
-      <c r="AE2153" s="203"/>
-      <c r="AF2153" s="203"/>
-      <c r="AG2153" s="203"/>
-      <c r="AH2153" s="203"/>
+      <c r="B2153" s="197"/>
+      <c r="C2153" s="197"/>
+      <c r="D2153" s="197"/>
+      <c r="E2153" s="197"/>
+      <c r="F2153" s="197"/>
+      <c r="G2153" s="197"/>
+      <c r="H2153" s="197"/>
+      <c r="I2153" s="197"/>
+      <c r="J2153" s="197"/>
+      <c r="K2153" s="197"/>
+      <c r="L2153" s="197"/>
+      <c r="M2153" s="197"/>
+      <c r="N2153" s="197"/>
+      <c r="O2153" s="197"/>
+      <c r="P2153" s="197"/>
+      <c r="Q2153" s="197"/>
+      <c r="R2153" s="197"/>
+      <c r="S2153" s="197"/>
+      <c r="T2153" s="197"/>
+      <c r="U2153" s="197"/>
+      <c r="V2153" s="197"/>
+      <c r="W2153" s="197"/>
+      <c r="X2153" s="197"/>
+      <c r="Y2153" s="197"/>
+      <c r="Z2153" s="197"/>
+      <c r="AA2153" s="197"/>
+      <c r="AB2153" s="197"/>
+      <c r="AC2153" s="197"/>
+      <c r="AD2153" s="197"/>
+      <c r="AE2153" s="197"/>
+      <c r="AF2153" s="197"/>
+      <c r="AG2153" s="197"/>
+      <c r="AH2153" s="197"/>
     </row>
     <row r="2253" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2317" s="203"/>
-      <c r="C2317" s="203"/>
-      <c r="D2317" s="203"/>
-      <c r="E2317" s="203"/>
-      <c r="F2317" s="203"/>
-      <c r="G2317" s="203"/>
-      <c r="H2317" s="203"/>
-      <c r="I2317" s="203"/>
-      <c r="J2317" s="203"/>
-      <c r="K2317" s="203"/>
-      <c r="L2317" s="203"/>
-      <c r="M2317" s="203"/>
-      <c r="N2317" s="203"/>
-      <c r="O2317" s="203"/>
-      <c r="P2317" s="203"/>
-      <c r="Q2317" s="203"/>
-      <c r="R2317" s="203"/>
-      <c r="S2317" s="203"/>
-      <c r="T2317" s="203"/>
-      <c r="U2317" s="203"/>
-      <c r="V2317" s="203"/>
-      <c r="W2317" s="203"/>
-      <c r="X2317" s="203"/>
-      <c r="Y2317" s="203"/>
-      <c r="Z2317" s="203"/>
-      <c r="AA2317" s="203"/>
-      <c r="AB2317" s="203"/>
-      <c r="AC2317" s="203"/>
-      <c r="AD2317" s="203"/>
-      <c r="AE2317" s="203"/>
-      <c r="AF2317" s="203"/>
-      <c r="AG2317" s="203"/>
-      <c r="AH2317" s="203"/>
+      <c r="B2317" s="197"/>
+      <c r="C2317" s="197"/>
+      <c r="D2317" s="197"/>
+      <c r="E2317" s="197"/>
+      <c r="F2317" s="197"/>
+      <c r="G2317" s="197"/>
+      <c r="H2317" s="197"/>
+      <c r="I2317" s="197"/>
+      <c r="J2317" s="197"/>
+      <c r="K2317" s="197"/>
+      <c r="L2317" s="197"/>
+      <c r="M2317" s="197"/>
+      <c r="N2317" s="197"/>
+      <c r="O2317" s="197"/>
+      <c r="P2317" s="197"/>
+      <c r="Q2317" s="197"/>
+      <c r="R2317" s="197"/>
+      <c r="S2317" s="197"/>
+      <c r="T2317" s="197"/>
+      <c r="U2317" s="197"/>
+      <c r="V2317" s="197"/>
+      <c r="W2317" s="197"/>
+      <c r="X2317" s="197"/>
+      <c r="Y2317" s="197"/>
+      <c r="Z2317" s="197"/>
+      <c r="AA2317" s="197"/>
+      <c r="AB2317" s="197"/>
+      <c r="AC2317" s="197"/>
+      <c r="AD2317" s="197"/>
+      <c r="AE2317" s="197"/>
+      <c r="AF2317" s="197"/>
+      <c r="AG2317" s="197"/>
+      <c r="AH2317" s="197"/>
     </row>
     <row r="2353" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2354" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2419" s="203"/>
-      <c r="C2419" s="203"/>
-      <c r="D2419" s="203"/>
-      <c r="E2419" s="203"/>
-      <c r="F2419" s="203"/>
-      <c r="G2419" s="203"/>
-      <c r="H2419" s="203"/>
-      <c r="I2419" s="203"/>
-      <c r="J2419" s="203"/>
-      <c r="K2419" s="203"/>
-      <c r="L2419" s="203"/>
-      <c r="M2419" s="203"/>
-      <c r="N2419" s="203"/>
-      <c r="O2419" s="203"/>
-      <c r="P2419" s="203"/>
-      <c r="Q2419" s="203"/>
-      <c r="R2419" s="203"/>
-      <c r="S2419" s="203"/>
-      <c r="T2419" s="203"/>
-      <c r="U2419" s="203"/>
-      <c r="V2419" s="203"/>
-      <c r="W2419" s="203"/>
-      <c r="X2419" s="203"/>
-      <c r="Y2419" s="203"/>
-      <c r="Z2419" s="203"/>
-      <c r="AA2419" s="203"/>
-      <c r="AB2419" s="203"/>
-      <c r="AC2419" s="203"/>
-      <c r="AD2419" s="203"/>
-      <c r="AE2419" s="203"/>
-      <c r="AF2419" s="203"/>
-      <c r="AG2419" s="203"/>
-      <c r="AH2419" s="203"/>
+      <c r="B2419" s="197"/>
+      <c r="C2419" s="197"/>
+      <c r="D2419" s="197"/>
+      <c r="E2419" s="197"/>
+      <c r="F2419" s="197"/>
+      <c r="G2419" s="197"/>
+      <c r="H2419" s="197"/>
+      <c r="I2419" s="197"/>
+      <c r="J2419" s="197"/>
+      <c r="K2419" s="197"/>
+      <c r="L2419" s="197"/>
+      <c r="M2419" s="197"/>
+      <c r="N2419" s="197"/>
+      <c r="O2419" s="197"/>
+      <c r="P2419" s="197"/>
+      <c r="Q2419" s="197"/>
+      <c r="R2419" s="197"/>
+      <c r="S2419" s="197"/>
+      <c r="T2419" s="197"/>
+      <c r="U2419" s="197"/>
+      <c r="V2419" s="197"/>
+      <c r="W2419" s="197"/>
+      <c r="X2419" s="197"/>
+      <c r="Y2419" s="197"/>
+      <c r="Z2419" s="197"/>
+      <c r="AA2419" s="197"/>
+      <c r="AB2419" s="197"/>
+      <c r="AC2419" s="197"/>
+      <c r="AD2419" s="197"/>
+      <c r="AE2419" s="197"/>
+      <c r="AF2419" s="197"/>
+      <c r="AG2419" s="197"/>
+      <c r="AH2419" s="197"/>
     </row>
     <row r="2453" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2454" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2509" s="203"/>
-      <c r="C2509" s="203"/>
-      <c r="D2509" s="203"/>
-      <c r="E2509" s="203"/>
-      <c r="F2509" s="203"/>
-      <c r="G2509" s="203"/>
-      <c r="H2509" s="203"/>
-      <c r="I2509" s="203"/>
-      <c r="J2509" s="203"/>
-      <c r="K2509" s="203"/>
-      <c r="L2509" s="203"/>
-      <c r="M2509" s="203"/>
-      <c r="N2509" s="203"/>
-      <c r="O2509" s="203"/>
-      <c r="P2509" s="203"/>
-      <c r="Q2509" s="203"/>
-      <c r="R2509" s="203"/>
-      <c r="S2509" s="203"/>
-      <c r="T2509" s="203"/>
-      <c r="U2509" s="203"/>
-      <c r="V2509" s="203"/>
-      <c r="W2509" s="203"/>
-      <c r="X2509" s="203"/>
-      <c r="Y2509" s="203"/>
-      <c r="Z2509" s="203"/>
-      <c r="AA2509" s="203"/>
-      <c r="AB2509" s="203"/>
-      <c r="AC2509" s="203"/>
-      <c r="AD2509" s="203"/>
-      <c r="AE2509" s="203"/>
-      <c r="AF2509" s="203"/>
-      <c r="AG2509" s="203"/>
-      <c r="AH2509" s="203"/>
+      <c r="B2509" s="197"/>
+      <c r="C2509" s="197"/>
+      <c r="D2509" s="197"/>
+      <c r="E2509" s="197"/>
+      <c r="F2509" s="197"/>
+      <c r="G2509" s="197"/>
+      <c r="H2509" s="197"/>
+      <c r="I2509" s="197"/>
+      <c r="J2509" s="197"/>
+      <c r="K2509" s="197"/>
+      <c r="L2509" s="197"/>
+      <c r="M2509" s="197"/>
+      <c r="N2509" s="197"/>
+      <c r="O2509" s="197"/>
+      <c r="P2509" s="197"/>
+      <c r="Q2509" s="197"/>
+      <c r="R2509" s="197"/>
+      <c r="S2509" s="197"/>
+      <c r="T2509" s="197"/>
+      <c r="U2509" s="197"/>
+      <c r="V2509" s="197"/>
+      <c r="W2509" s="197"/>
+      <c r="X2509" s="197"/>
+      <c r="Y2509" s="197"/>
+      <c r="Z2509" s="197"/>
+      <c r="AA2509" s="197"/>
+      <c r="AB2509" s="197"/>
+      <c r="AC2509" s="197"/>
+      <c r="AD2509" s="197"/>
+      <c r="AE2509" s="197"/>
+      <c r="AF2509" s="197"/>
+      <c r="AG2509" s="197"/>
+      <c r="AH2509" s="197"/>
     </row>
     <row r="2553" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2554" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2598" s="203"/>
-      <c r="C2598" s="203"/>
-      <c r="D2598" s="203"/>
-      <c r="E2598" s="203"/>
-      <c r="F2598" s="203"/>
-      <c r="G2598" s="203"/>
-      <c r="H2598" s="203"/>
-      <c r="I2598" s="203"/>
-      <c r="J2598" s="203"/>
-      <c r="K2598" s="203"/>
-      <c r="L2598" s="203"/>
-      <c r="M2598" s="203"/>
-      <c r="N2598" s="203"/>
-      <c r="O2598" s="203"/>
-      <c r="P2598" s="203"/>
-      <c r="Q2598" s="203"/>
-      <c r="R2598" s="203"/>
-      <c r="S2598" s="203"/>
-      <c r="T2598" s="203"/>
-      <c r="U2598" s="203"/>
-      <c r="V2598" s="203"/>
-      <c r="W2598" s="203"/>
-      <c r="X2598" s="203"/>
-      <c r="Y2598" s="203"/>
-      <c r="Z2598" s="203"/>
-      <c r="AA2598" s="203"/>
-      <c r="AB2598" s="203"/>
-      <c r="AC2598" s="203"/>
-      <c r="AD2598" s="203"/>
-      <c r="AE2598" s="203"/>
-      <c r="AF2598" s="203"/>
-      <c r="AG2598" s="203"/>
-      <c r="AH2598" s="203"/>
+      <c r="B2598" s="197"/>
+      <c r="C2598" s="197"/>
+      <c r="D2598" s="197"/>
+      <c r="E2598" s="197"/>
+      <c r="F2598" s="197"/>
+      <c r="G2598" s="197"/>
+      <c r="H2598" s="197"/>
+      <c r="I2598" s="197"/>
+      <c r="J2598" s="197"/>
+      <c r="K2598" s="197"/>
+      <c r="L2598" s="197"/>
+      <c r="M2598" s="197"/>
+      <c r="N2598" s="197"/>
+      <c r="O2598" s="197"/>
+      <c r="P2598" s="197"/>
+      <c r="Q2598" s="197"/>
+      <c r="R2598" s="197"/>
+      <c r="S2598" s="197"/>
+      <c r="T2598" s="197"/>
+      <c r="U2598" s="197"/>
+      <c r="V2598" s="197"/>
+      <c r="W2598" s="197"/>
+      <c r="X2598" s="197"/>
+      <c r="Y2598" s="197"/>
+      <c r="Z2598" s="197"/>
+      <c r="AA2598" s="197"/>
+      <c r="AB2598" s="197"/>
+      <c r="AC2598" s="197"/>
+      <c r="AD2598" s="197"/>
+      <c r="AE2598" s="197"/>
+      <c r="AF2598" s="197"/>
+      <c r="AG2598" s="197"/>
+      <c r="AH2598" s="197"/>
     </row>
     <row r="2628" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2629" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2719" s="203"/>
-      <c r="C2719" s="203"/>
-      <c r="D2719" s="203"/>
-      <c r="E2719" s="203"/>
-      <c r="F2719" s="203"/>
-      <c r="G2719" s="203"/>
-      <c r="H2719" s="203"/>
-      <c r="I2719" s="203"/>
-      <c r="J2719" s="203"/>
-      <c r="K2719" s="203"/>
-      <c r="L2719" s="203"/>
-      <c r="M2719" s="203"/>
-      <c r="N2719" s="203"/>
-      <c r="O2719" s="203"/>
-      <c r="P2719" s="203"/>
-      <c r="Q2719" s="203"/>
-      <c r="R2719" s="203"/>
-      <c r="S2719" s="203"/>
-      <c r="T2719" s="203"/>
-      <c r="U2719" s="203"/>
-      <c r="V2719" s="203"/>
-      <c r="W2719" s="203"/>
-      <c r="X2719" s="203"/>
-      <c r="Y2719" s="203"/>
-      <c r="Z2719" s="203"/>
-      <c r="AA2719" s="203"/>
-      <c r="AB2719" s="203"/>
-      <c r="AC2719" s="203"/>
-      <c r="AD2719" s="203"/>
-      <c r="AE2719" s="203"/>
-      <c r="AF2719" s="203"/>
-      <c r="AG2719" s="203"/>
-      <c r="AH2719" s="203"/>
+      <c r="B2719" s="197"/>
+      <c r="C2719" s="197"/>
+      <c r="D2719" s="197"/>
+      <c r="E2719" s="197"/>
+      <c r="F2719" s="197"/>
+      <c r="G2719" s="197"/>
+      <c r="H2719" s="197"/>
+      <c r="I2719" s="197"/>
+      <c r="J2719" s="197"/>
+      <c r="K2719" s="197"/>
+      <c r="L2719" s="197"/>
+      <c r="M2719" s="197"/>
+      <c r="N2719" s="197"/>
+      <c r="O2719" s="197"/>
+      <c r="P2719" s="197"/>
+      <c r="Q2719" s="197"/>
+      <c r="R2719" s="197"/>
+      <c r="S2719" s="197"/>
+      <c r="T2719" s="197"/>
+      <c r="U2719" s="197"/>
+      <c r="V2719" s="197"/>
+      <c r="W2719" s="197"/>
+      <c r="X2719" s="197"/>
+      <c r="Y2719" s="197"/>
+      <c r="Z2719" s="197"/>
+      <c r="AA2719" s="197"/>
+      <c r="AB2719" s="197"/>
+      <c r="AC2719" s="197"/>
+      <c r="AD2719" s="197"/>
+      <c r="AE2719" s="197"/>
+      <c r="AF2719" s="197"/>
+      <c r="AG2719" s="197"/>
+      <c r="AH2719" s="197"/>
     </row>
     <row r="2778" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2779" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2837" s="203"/>
-      <c r="C2837" s="203"/>
-      <c r="D2837" s="203"/>
-      <c r="E2837" s="203"/>
-      <c r="F2837" s="203"/>
-      <c r="G2837" s="203"/>
-      <c r="H2837" s="203"/>
-      <c r="I2837" s="203"/>
-      <c r="J2837" s="203"/>
-      <c r="K2837" s="203"/>
-      <c r="L2837" s="203"/>
-      <c r="M2837" s="203"/>
-      <c r="N2837" s="203"/>
-      <c r="O2837" s="203"/>
-      <c r="P2837" s="203"/>
-      <c r="Q2837" s="203"/>
-      <c r="R2837" s="203"/>
-      <c r="S2837" s="203"/>
-      <c r="T2837" s="203"/>
-      <c r="U2837" s="203"/>
-      <c r="V2837" s="203"/>
-      <c r="W2837" s="203"/>
-      <c r="X2837" s="203"/>
-      <c r="Y2837" s="203"/>
-      <c r="Z2837" s="203"/>
-      <c r="AA2837" s="203"/>
-      <c r="AB2837" s="203"/>
-      <c r="AC2837" s="203"/>
-      <c r="AD2837" s="203"/>
-      <c r="AE2837" s="203"/>
-      <c r="AF2837" s="203"/>
-      <c r="AG2837" s="203"/>
-      <c r="AH2837" s="203"/>
+      <c r="B2837" s="197"/>
+      <c r="C2837" s="197"/>
+      <c r="D2837" s="197"/>
+      <c r="E2837" s="197"/>
+      <c r="F2837" s="197"/>
+      <c r="G2837" s="197"/>
+      <c r="H2837" s="197"/>
+      <c r="I2837" s="197"/>
+      <c r="J2837" s="197"/>
+      <c r="K2837" s="197"/>
+      <c r="L2837" s="197"/>
+      <c r="M2837" s="197"/>
+      <c r="N2837" s="197"/>
+      <c r="O2837" s="197"/>
+      <c r="P2837" s="197"/>
+      <c r="Q2837" s="197"/>
+      <c r="R2837" s="197"/>
+      <c r="S2837" s="197"/>
+      <c r="T2837" s="197"/>
+      <c r="U2837" s="197"/>
+      <c r="V2837" s="197"/>
+      <c r="W2837" s="197"/>
+      <c r="X2837" s="197"/>
+      <c r="Y2837" s="197"/>
+      <c r="Z2837" s="197"/>
+      <c r="AA2837" s="197"/>
+      <c r="AB2837" s="197"/>
+      <c r="AC2837" s="197"/>
+      <c r="AD2837" s="197"/>
+      <c r="AE2837" s="197"/>
+      <c r="AF2837" s="197"/>
+      <c r="AG2837" s="197"/>
+      <c r="AH2837" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B147:AG147"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B147:AG147"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
